--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -661,42 +661,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="63.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -253,8 +253,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -267,10 +267,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -309,13 +309,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -328,13 +328,13 @@
 CodeableConcept</t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>拡張値の値 / Value of extension</t>
+  </si>
+  <si>
+    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
 </sst>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -253,8 +253,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -267,10 +267,10 @@
 </t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -309,13 +309,13 @@
 </t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -328,13 +328,13 @@
 CodeableConcept</t>
   </si>
   <si>
-    <t>拡張値の値 / Value of extension</t>
-  </si>
-  <si>
-    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
 </sst>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -577,9 +577,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationAdministrationDosageLineComment_VS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -683,7 +689,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1267,13 +1273,11 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>75</v>
@@ -1303,7 +1307,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>99</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration-dosage-linecomment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>ラインコメント</t>
+  </si>
+  <si>
+    <t>ラインコメントを格納するための拡張</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -334,14 +340,34 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationAdministrationDosageLineComment_VS</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationAdministrationDosageLineComment_VS</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>テキスト記載</t>
   </si>
 </sst>
 </file>
@@ -656,7 +682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -666,7 +692,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -675,7 +701,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -841,10 +867,10 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -904,10 +930,10 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -915,7 +941,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -926,7 +952,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>75</v>
@@ -938,13 +964,13 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -995,13 +1021,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1010,12 +1036,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1038,13 +1064,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1083,19 +1109,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1107,7 +1133,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1115,7 +1141,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1123,10 +1149,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1138,16 +1164,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1197,13 +1223,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1212,12 +1238,12 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1228,7 +1254,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1240,13 +1266,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1273,44 +1299,246 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="X6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
